--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail11 Features.xlsx
@@ -3692,7 +3692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3704,28 +3704,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3746,115 +3744,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3871,72 +3859,66 @@
         <v>1.72944413585487e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.03183738568239867</v>
+        <v>5.994739348988693e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.100683973099822</v>
+        <v>2.325367450938118e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.994739348988693e-07</v>
+        <v>0.005085999038181333</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.325367450938118e-06</v>
+        <v>0.1739219081068593</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.005085999038181333</v>
+        <v>0.03027460944497466</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1739219081068593</v>
+        <v>1.910067446432092</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03027460944497466</v>
+        <v>3.146055369611694</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.963158798565194</v>
+        <v>5.174134317740855</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.146055369611694</v>
+        <v>2.465140677240616e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.174134317740855</v>
+        <v>6331555948.871977</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.465140677240616e-17</v>
+        <v>1.888425630627181e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>6331555948.871977</v>
+        <v>988.2404036229232</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.888425630627181e-08</v>
+        <v>7.057893989832379e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>988.2404036229232</v>
+        <v>13.87261799443898</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>7.057893989832379e-05</v>
+        <v>0.9716735449796537</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.87261799443898</v>
+        <v>0.01358288381271627</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0.9716735449796537</v>
+        <v>6.168605330001236</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01358288381271627</v>
+        <v>0.9617497828715299</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.168605330001236</v>
+        <v>1.041997093212653</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9617497828715299</v>
+        <v>66</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.041997093212653</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>9.712743353748841</v>
       </c>
     </row>
@@ -3951,72 +3933,66 @@
         <v>1.715803560882261e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.00531148881268458</v>
+        <v>5.914173873425283e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.134459121963898</v>
+        <v>2.326162953525392e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.914173873425283e-07</v>
+        <v>0.003827725453196724</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.326162953525392e-06</v>
+        <v>0.1752277618340644</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.003827725453196724</v>
+        <v>0.03071856887107112</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1752277618340644</v>
+        <v>1.909186171447745</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03071856887107112</v>
+        <v>2.547500338231989</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.96672228727387</v>
+        <v>5.565379377994772</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.547500338231989</v>
+        <v>2.883036421613354e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.565379377994772</v>
+        <v>5319352108.614624</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.883036421613354e-17</v>
+        <v>2.235317003857498e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>5319352108.614624</v>
+        <v>815.7697683219441</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.235317003857498e-08</v>
+        <v>6.63886897724366e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>815.7697683219441</v>
+        <v>12.89585225198131</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.63886897724366e-05</v>
+        <v>1.245103802129809</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.89585225198131</v>
+        <v>0.01104063862741297</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.245103802129809</v>
+        <v>6.745098349329939</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01104063862741297</v>
+        <v>0.9616630761556435</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.745098349329939</v>
+        <v>0.8351738452912399</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9616630761556435</v>
+        <v>51</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8351738452912399</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>11.4936908624236</v>
       </c>
     </row>
@@ -4031,72 +4007,66 @@
         <v>1.709158064594102e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.007600315541446703</v>
+        <v>5.592105323534196e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.150415366547181</v>
+        <v>2.326553037514796e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.592105323534196e-07</v>
+        <v>0.0003158141527802718</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.326553037514796e-06</v>
+        <v>0.174194844257011</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0003158141527802718</v>
+        <v>0.03033905993831729</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.174194844257011</v>
+        <v>1.90605073504789</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03033905993831729</v>
+        <v>2.599163675872485</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.965976052033006</v>
+        <v>5.814630212696194</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.599163675872485</v>
+        <v>2.145699865660345e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.814630212696194</v>
+        <v>7115794498.597363</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.145699865660345e-17</v>
+        <v>1.6688587104547e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>7115794498.597363</v>
+        <v>1086.465071074629</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.6688587104547e-08</v>
+        <v>5.564074002957103e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1086.465071074629</v>
+        <v>13.41686704329278</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>5.564074002957103e-05</v>
+        <v>1.061402924272463</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.41686704329278</v>
+        <v>0.01001601876920239</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.061402924272463</v>
+        <v>6.759976313927666</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01001601876920239</v>
+        <v>0.9619433911945452</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.759976313927666</v>
+        <v>0.8005358427527212</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9619433911945452</v>
+        <v>51</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8005358427527212</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>11.94172961445965</v>
       </c>
     </row>
@@ -4111,72 +4081,66 @@
         <v>1.715829258303614e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.002638937805954168</v>
+        <v>5.587372003054122e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.142729498710669</v>
+        <v>2.326111778860381e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.587372003054122e-07</v>
+        <v>-0.005822809374619439</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.326111778860381e-06</v>
+        <v>0.1672279355097862</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.005822809374619439</v>
+        <v>0.02798716645954923</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1672279355097862</v>
+        <v>1.910786608940151</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02798716645954923</v>
+        <v>2.786755705885244</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.966330200594532</v>
+        <v>4.92633071371109</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.786755705885244</v>
+        <v>2.028991084489048e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.92633071371109</v>
+        <v>7590614772.588322</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.028991084489048e-17</v>
+        <v>1.567331645920045e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7590614772.588322</v>
+        <v>1169.052571089698</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.567331645920045e-08</v>
+        <v>7.367555778582471e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1169.052571089698</v>
+        <v>13.60479302226973</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>7.367555778582471e-05</v>
+        <v>0.9962007742523081</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.60479302226973</v>
+        <v>0.01363663795824563</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.9962007742523081</v>
+        <v>6.111999327302105</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01363663795824563</v>
+        <v>0.9633339490010229</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.111999327302105</v>
+        <v>0.7540278596432408</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9633339490010229</v>
+        <v>33</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7540278596432408</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>9.918852574078073</v>
       </c>
     </row>
@@ -4191,72 +4155,66 @@
         <v>1.737878630815939e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.02475084898500919</v>
+        <v>5.596869351352911e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.143486667743829</v>
+        <v>2.324436225356514e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.596869351352911e-07</v>
+        <v>-0.01367241199603326</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.324436225356514e-06</v>
+        <v>0.1530191138602071</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01367241199603326</v>
+        <v>0.02358513177327931</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1530191138602071</v>
+        <v>1.915897698536488</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02358513177327931</v>
+        <v>2.893917803666513</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.965979223688217</v>
+        <v>5.051718111119198</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.893917803666513</v>
+        <v>2.258504006609439e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.051718111119198</v>
+        <v>6954715481.450416</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.258504006609439e-17</v>
+        <v>1.716328971066767e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>6954715481.450416</v>
+        <v>1092.394740779266</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.716328971066767e-08</v>
+        <v>8.07378383705639e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1092.394740779266</v>
+        <v>13.70566461744877</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>8.07378383705639e-05</v>
+        <v>0.9757168495844152</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>13.70566461744877</v>
+        <v>0.01516621883620156</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0.9757168495844152</v>
+        <v>5.882681556848148</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01516621883620156</v>
+        <v>0.9645901799980298</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.882681556848148</v>
+        <v>0.7560470530907263</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9645901799980298</v>
+        <v>6</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.7560470530907263</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>8.872522456013339</v>
       </c>
     </row>
@@ -4271,72 +4229,66 @@
         <v>1.770438566835544e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.03347681016796082</v>
+        <v>5.596874958737695e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.178158129996909</v>
+        <v>2.321308076945141e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.596874958737695e-07</v>
+        <v>-0.02188002454379158</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.321308076945141e-06</v>
+        <v>0.1336615979822465</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02188002454379158</v>
+        <v>0.01832654724584111</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1336615979822465</v>
+        <v>1.915192520804424</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01832654724584111</v>
+        <v>2.735989349234121</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.964463026035135</v>
+        <v>4.92575706215414</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.735989349234121</v>
+        <v>3.097620017352896e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.92575706215414</v>
+        <v>5022868987.789798</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.097620017352896e-17</v>
+        <v>2.377531498391804e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>5022868987.789798</v>
+        <v>781.5051480352445</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.377531498391804e-08</v>
+        <v>7.607482112235524e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>781.5051480352445</v>
+        <v>14.11768339149455</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>7.607482112235524e-05</v>
+        <v>0.9650674813596548</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>14.11768339149455</v>
+        <v>0.01516239533193255</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.9650674813596548</v>
+        <v>6.068691665259255</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01516239533193255</v>
+        <v>0.9646975310454098</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>6.068691665259255</v>
+        <v>0.843878715234642</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9646975310454098</v>
+        <v>6</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.843878715234642</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>8.985847981422351</v>
       </c>
     </row>
@@ -4351,72 +4303,66 @@
         <v>1.804700858640449e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.01378106225324801</v>
+        <v>5.596874958737695e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.228522748377809</v>
+        <v>2.316694638243093e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.596874958737695e-07</v>
+        <v>-0.02948308235409366</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.316694638243093e-06</v>
+        <v>0.1123706415759455</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02948308235409366</v>
+        <v>0.01348090215013384</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1123706415759455</v>
+        <v>1.913743770321704</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01348090215013384</v>
+        <v>2.575336005584102</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.96301733551475</v>
+        <v>4.901163996081569</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.575336005584102</v>
+        <v>3.933702078082467e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.901163996081569</v>
+        <v>4030641299.942871</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.933702078082467e-17</v>
+        <v>2.960415538450409e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>4030641299.942871</v>
+        <v>639.0719652204459</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.960415538450409e-08</v>
+        <v>8.480704862143314e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>639.0719652204459</v>
+        <v>15.04043985019636</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>8.480704862143314e-05</v>
+        <v>0.9705178355848952</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>15.04043985019636</v>
+        <v>0.01918461216195486</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.9705178355848952</v>
+        <v>5.962482465339574</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01918461216195486</v>
+        <v>0.9635968052696464</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.962482465339574</v>
+        <v>0.7929792580217324</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9635968052696464</v>
+        <v>6</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.7929792580217324</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>8.757671168586613</v>
       </c>
     </row>
@@ -4431,72 +4377,66 @@
         <v>1.831607185815054e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.03165310129232458</v>
+        <v>5.596874958737695e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.260759590043197</v>
+        <v>2.310682373677873e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.596874958737695e-07</v>
+        <v>-0.03640952698955383</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.310682373677873e-06</v>
+        <v>0.08976524082717734</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03640952698955383</v>
+        <v>0.009370289505667978</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08976524082717734</v>
+        <v>1.909925913226665</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.009370289505667978</v>
+        <v>2.524721516145004</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.961436918853213</v>
+        <v>4.818762325173399</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.524721516145004</v>
+        <v>4.943301088685256e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.818762325173399</v>
+        <v>3370558509.215108</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.943301088685256e-17</v>
+        <v>3.547688508973895e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>3370558509.215108</v>
+        <v>561.5918600194879</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.547688508973895e-08</v>
+        <v>0.0001138075139337371</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>561.5918600194879</v>
+        <v>14.44457807383154</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001138075139337371</v>
+        <v>0.9735630403631169</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>14.44457807383154</v>
+        <v>0.02374546385717372</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>0.9735630403631169</v>
+        <v>5.090786847613805</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02374546385717372</v>
+        <v>0.9617901816865638</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.090786847613805</v>
+        <v>0.8224478136305124</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9617901816865638</v>
+        <v>6</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.8224478136305124</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>6.562206784942064</v>
       </c>
     </row>
@@ -4511,72 +4451,66 @@
         <v>1.843929492867537e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.08944475246948579</v>
+        <v>5.596874958737695e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.260295277180832</v>
+        <v>2.303440628514536e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.596874958737695e-07</v>
+        <v>-0.04194545867342068</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.303440628514536e-06</v>
+        <v>0.07058468773021981</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04194545867342068</v>
+        <v>0.006735114601555677</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.07058468773021981</v>
+        <v>1.885271245673528</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.006735114601555677</v>
+        <v>2.418869787803545</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.916845511817598</v>
+        <v>6.669720236999772</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.418869787803545</v>
+        <v>7.09652057377482e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.669720236999772</v>
+        <v>2300261390.35633</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>7.09652057377482e-17</v>
+        <v>5.169554244640067e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2300261390.35633</v>
+        <v>375.491271455288</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.169554244640067e-08</v>
+        <v>0.000144376630754691</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>375.491271455288</v>
+        <v>12.23259543440015</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000144376630754691</v>
+        <v>1.137986552594428</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>12.23259543440015</v>
+        <v>0.02160399797978067</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.137986552594428</v>
+        <v>4.37107005544238</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02160399797978067</v>
+        <v>0.9600473737537417</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.37107005544238</v>
+        <v>1.157177453267318</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9600473737537417</v>
+        <v>7</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.157177453267318</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>4.383546089874921</v>
       </c>
     </row>
@@ -4591,72 +4525,66 @@
         <v>1.839784883048314e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1448445879084373</v>
+        <v>5.596874958737695e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.240340124288215</v>
+        <v>2.295330747024769e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.596874958737695e-07</v>
+        <v>-0.04577313939911254</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.295330747024769e-06</v>
+        <v>0.05969850597550112</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04577313939911254</v>
+        <v>0.005656729239179934</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.05969850597550112</v>
+        <v>1.885626474815421</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.005656729239179934</v>
+        <v>2.401156453141577</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.90938315522626</v>
+        <v>5.055801208140545</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.401156453141577</v>
+        <v>1.360018628916825e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.055801208140545</v>
+        <v>1191771374.730479</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.360018628916825e-16</v>
+        <v>9.967637947652729e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1191771374.730479</v>
+        <v>193.1660312097383</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>9.967637947652729e-08</v>
+        <v>0.0002151493287199685</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>193.1660312097383</v>
+        <v>9.51304469321075</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002151493287199685</v>
+        <v>1.805424577336643</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.51304469321075</v>
+        <v>0.0194705881104174</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.805424577336643</v>
+        <v>3.527145622075061</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0194705881104174</v>
+        <v>0.95974438159645</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.527145622075061</v>
+        <v>1.404190875774803</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.95974438159645</v>
+        <v>5</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.404190875774803</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.718979154149827</v>
       </c>
     </row>
@@ -4671,72 +4599,66 @@
         <v>1.8216358939917e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1908345057291544</v>
+        <v>5.596874958737695e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.219664619425078</v>
+        <v>2.286711867442048e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.596874958737695e-07</v>
+        <v>-0.04800612363429743</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.286711867442048e-06</v>
+        <v>0.05616413094260127</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04800612363429743</v>
+        <v>0.005458923274953166</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.05616413094260127</v>
+        <v>1.880510081641266</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.005458923274953166</v>
+        <v>2.36160681917304</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.893139770431678</v>
+        <v>4.720697835472959</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.36160681917304</v>
+        <v>1.559956292396525e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.720697835472959</v>
+        <v>1013836914.373424</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.559956292396525e-16</v>
+        <v>1.172178871472834e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1013836914.373424</v>
+        <v>160.3424925227637</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.172178871472834e-07</v>
+        <v>0.0001453635081930922</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>160.3424925227637</v>
+        <v>9.450605450574496</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001453635081930922</v>
+        <v>1.472526291329546</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.450605450574496</v>
+        <v>0.012982988140629</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.472526291329546</v>
+        <v>3.523073069535036</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.012982988140629</v>
+        <v>0.9568562361477368</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.523073069535036</v>
+        <v>1.429351309309564</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9568562361477368</v>
+        <v>8</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.429351309309564</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.8969882667279289</v>
       </c>
     </row>
@@ -4751,72 +4673,66 @@
         <v>1.794092205249676e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2289405301874051</v>
+        <v>5.596838609021945e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.204978432249658</v>
+        <v>2.277945311642346e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.596838609021945e-07</v>
+        <v>-0.04873361852503918</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.277945311642346e-06</v>
+        <v>0.05697318411837742</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04873361852503918</v>
+        <v>0.005621133873730783</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.05697318411837742</v>
+        <v>1.877645132355015</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005621133873730783</v>
+        <v>2.375240426986999</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.88347942962967</v>
+        <v>4.687362802590373</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.375240426986999</v>
+        <v>1.582223014421103e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.687362802590373</v>
+        <v>991927206.6142182</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.582223014421103e-16</v>
+        <v>1.195685907341548e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>991927206.6142182</v>
+        <v>155.6780208912655</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.195685907341548e-07</v>
+        <v>0.0001136648115382602</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>155.6780208912655</v>
+        <v>9.428174993038775</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001136648115382602</v>
+        <v>1.205262421287629</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.428174993038775</v>
+        <v>0.01010372007723274</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.205262421287629</v>
+        <v>3.380454918310658</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01010372007723274</v>
+        <v>0.9574900398352455</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.380454918310658</v>
+        <v>1.417163751925048</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9574900398352455</v>
+        <v>8</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.417163751925048</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.6379734517621284</v>
       </c>
     </row>
@@ -4831,72 +4747,66 @@
         <v>1.76041308241346e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2628037804982441</v>
+        <v>5.566490988670203e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.194110167232753</v>
+        <v>2.269280911139213e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.566490988670203e-07</v>
+        <v>-0.04862464978175742</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.269280911139213e-06</v>
+        <v>0.05918235935630927</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04862464978175742</v>
+        <v>0.005866954850970335</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.05918235935630927</v>
+        <v>1.872453143826676</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005866954850970335</v>
+        <v>2.239501267540424</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.878294237431348</v>
+        <v>5.241976914022982</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.239501267540424</v>
+        <v>1.910118023375388e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.241976914022982</v>
+        <v>828560298.8714707</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.910118023375388e-16</v>
+        <v>1.427858794642464e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>828560298.8714707</v>
+        <v>131.1319267017438</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.427858794642464e-07</v>
+        <v>0.0001134133361029605</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>131.1319267017438</v>
+        <v>8.527796286541383</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001134133361029605</v>
+        <v>1.276301409759145</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.527796286541383</v>
+        <v>0.008247793143381723</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.276301409759145</v>
+        <v>3.314071069703678</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008247793143381723</v>
+        <v>0.9580623790952599</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.314071069703678</v>
+        <v>1.443345397912839</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9580623790952599</v>
+        <v>8</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.443345397912839</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.4842479963720018</v>
       </c>
     </row>
@@ -4911,72 +4821,66 @@
         <v>1.721826819890504e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2943134501748406</v>
+        <v>5.48938969481042e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.184494798929874</v>
+        <v>2.26087287641859e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.48938969481042e-07</v>
+        <v>-0.04777861537953439</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.26087287641859e-06</v>
+        <v>0.06246878986561183</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04777861537953439</v>
+        <v>0.006184750150732201</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.06246878986561183</v>
+        <v>1.868261895951331</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.006184750150732201</v>
+        <v>2.004103598850372</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.869532871725026</v>
+        <v>5.476844888452283</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.004103598850372</v>
+        <v>2.972357931906671e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.476844888452283</v>
+        <v>531885275.6471103</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.972357931906671e-16</v>
+        <v>2.226920052559539e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>531885275.6471103</v>
+        <v>84.08858444830956</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.226920052559539e-07</v>
+        <v>0.0001280575357262098</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>84.08858444830956</v>
+        <v>7.717167593360887</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001280575357262098</v>
+        <v>1.403261632468959</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.717167593360887</v>
+        <v>0.007626425006508013</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.403261632468959</v>
+        <v>3.304991478913557</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.007626425006508013</v>
+        <v>0.9587776882018102</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.304991478913557</v>
+        <v>1.453071248096694</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9587776882018102</v>
+        <v>8</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.453071248096694</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3573468356601808</v>
       </c>
     </row>
@@ -4991,72 +4895,66 @@
         <v>1.678783236996914e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3242070913572508</v>
+        <v>5.401577602920773e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.173161954812888</v>
+        <v>2.252866467871736e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.401577602920773e-07</v>
+        <v>-0.04625753388226995</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.252866467871736e-06</v>
+        <v>0.06733978823550492</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04625753388226995</v>
+        <v>0.006673323018036445</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.06733978823550492</v>
+        <v>1.86957590144528</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.006673323018036445</v>
+        <v>1.838313274958854</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.863655743521447</v>
+        <v>5.170006802186284</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.838313274958854</v>
+        <v>5.468473358035222e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.170006802186284</v>
+        <v>298904486.2763404</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.468473358035222e-16</v>
+        <v>3.978613165824794e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>298904486.2763404</v>
+        <v>48.85746926464968</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.978613165824794e-07</v>
+        <v>0.0001736976862115529</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>48.85746926464968</v>
+        <v>8.768002895241542</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001736976862115529</v>
+        <v>1.512556898744725</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.768002895241542</v>
+        <v>0.01335350896857798</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.512556898744725</v>
+        <v>3.001176318004494</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01335350896857798</v>
+        <v>0.9600223723216629</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.001176318004494</v>
+        <v>1.453870146844775</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9600223723216629</v>
+        <v>8</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.453870146844775</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2656471748900786</v>
       </c>
     </row>
@@ -5071,72 +4969,66 @@
         <v>1.630606634063605e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3496828467702211</v>
+        <v>5.319786984249846e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.161497190223596</v>
+        <v>2.245381858945355e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.319786984249846e-07</v>
+        <v>-0.04399740957812327</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.245381858945355e-06</v>
+        <v>0.07461879234992888</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04399740957812327</v>
+        <v>0.007501472367632179</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.07461879234992888</v>
+        <v>1.848775298787352</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.007501472367632179</v>
+        <v>1.851379068388465</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.832258756401873</v>
+        <v>4.380150834117968</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.851379068388465</v>
+        <v>7.669061739641831e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.380150834117968</v>
+        <v>211986477.9206263</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>7.669061739641831e-16</v>
+        <v>5.588228712084215e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>211986477.9206263</v>
+        <v>34.46343427242208</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.588228712084215e-07</v>
+        <v>0.0002020378995289629</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>34.46343427242208</v>
+        <v>10.94891519634103</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002020378995289629</v>
+        <v>1.229276280871452</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.94891519634103</v>
+        <v>0.02422004963121621</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.229276280871452</v>
+        <v>2.675156609050533</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02422004963121621</v>
+        <v>0.9592955294254455</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.675156609050533</v>
+        <v>1.494037870690706</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9592955294254455</v>
+        <v>8</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.494037870690706</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2386052588726424</v>
       </c>
     </row>
@@ -5151,72 +5043,66 @@
         <v>1.57760316855938e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3663015154289683</v>
+        <v>5.22719670042082e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.152629965400468</v>
+        <v>2.238543183678395e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.22719670042082e-07</v>
+        <v>-0.0411980650321569</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.238543183678395e-06</v>
+        <v>0.08316073127424528</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.0411980650321569</v>
+        <v>0.008610698064665042</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.08316073127424528</v>
+        <v>1.771050062737435</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.008610698064665042</v>
+        <v>1.715903961488171</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.725865026736171</v>
+        <v>5.951011266696657</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.715903961488171</v>
+        <v>9.943669501706476e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.951011266696657</v>
+        <v>166977899.4706325</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>9.943669501706476e-16</v>
+        <v>6.941798673409781e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>166977899.4706325</v>
+        <v>27.72456036297245</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>6.941798673409781e-07</v>
+        <v>0.0001962240302335848</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>27.72456036297245</v>
+        <v>12.83390038372614</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001962240302335848</v>
+        <v>1.034800072258754</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>12.83390038372614</v>
+        <v>0.03231986361117637</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.034800072258754</v>
+        <v>2.477500364057096</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.03231986361117637</v>
+        <v>0.9530664144101252</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.477500364057096</v>
+        <v>1.662473419698358</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9530664144101252</v>
+        <v>9</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.662473419698358</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2560355600438618</v>
       </c>
     </row>
@@ -5231,72 +5117,66 @@
         <v>1.521846863315387e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.371224247120809</v>
+        <v>5.095937811665529e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.151311941563718</v>
+        <v>2.232354220748451e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.095937811665529e-07</v>
+        <v>-0.03871296689999495</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.232354220748451e-06</v>
+        <v>0.08962700433897569</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03871296689999495</v>
+        <v>0.009530302360657987</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.08962700433897569</v>
+        <v>1.755270062432333</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.009530302360657987</v>
+        <v>1.629775749816517</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.700147336701367</v>
+        <v>4.699672213041046</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.629775749816517</v>
+        <v>2.263390230125007e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.699672213041046</v>
+        <v>77215102.46835898</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.263390230125007e-15</v>
+        <v>1.506303430277751e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>77215102.46835898</v>
+        <v>13.49472196648181</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.506303430277751e-06</v>
+        <v>0.0001956245808294201</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>13.49472196648181</v>
+        <v>9.508602591462058</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001956245808294201</v>
+        <v>1.507059509054943</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.508602591462058</v>
+        <v>0.0176871075855975</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.507059509054943</v>
+        <v>2.828670889938373</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0176871075855975</v>
+        <v>0.9517188810209426</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.828670889938373</v>
+        <v>1.749788806086608</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9517188810209426</v>
+        <v>9</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.749788806086608</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1854530990896711</v>
       </c>
     </row>
@@ -5311,72 +5191,66 @@
         <v>1.46654625817107e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3680742443368326</v>
+        <v>4.923615430882338e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.154311548619704</v>
+        <v>2.226721748296121e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.923615430882338e-07</v>
+        <v>-0.0367635008477513</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.226721748296121e-06</v>
+        <v>0.09387966192836988</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.0367635008477513</v>
+        <v>0.01016394458704549</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.09387966192836988</v>
+        <v>1.73335828848568</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01016394458704549</v>
+        <v>1.62311763237912</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.669888430858189</v>
+        <v>4.168410370431135</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.62311763237912</v>
+        <v>2.877091263523025e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.168410370431135</v>
+        <v>60777991.8911372</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.877091263523025e-15</v>
+        <v>1.902466891104565e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>60777991.8911372</v>
+        <v>10.62787241045996</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.902466891104565e-06</v>
+        <v>0.0001837683103276687</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>10.62787241045996</v>
+        <v>8.788475655452384</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001837683103276687</v>
+        <v>1.575496269256573</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.788475655452384</v>
+        <v>0.01419376891401638</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.575496269256573</v>
+        <v>2.840324355788406</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01419376891401638</v>
+        <v>0.9515628621119656</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.840324355788406</v>
+        <v>1.739934585353627</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9515628621119656</v>
+        <v>9</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.739934585353627</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1577956204710322</v>
       </c>
     </row>
@@ -5391,72 +5265,66 @@
         <v>1.413073155030188e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3597605877164306</v>
+        <v>4.76325493448875e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.159536928826782</v>
+        <v>2.221533393784776e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.76325493448875e-07</v>
+        <v>-0.03540523162740157</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.221533393784776e-06</v>
+        <v>0.09759132253320761</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03540523162740157</v>
+        <v>0.01077700644395346</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.09759132253320761</v>
+        <v>1.71512193324753</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01077700644395346</v>
+        <v>1.610091899638255</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.645185261138492</v>
+        <v>4.106288123505619</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.610091899638255</v>
+        <v>2.964802277991697e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.106288123505619</v>
+        <v>58105445.31219226</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.964802277991697e-15</v>
+        <v>1.977523449280556e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>58105445.31219226</v>
+        <v>10.00989227016003</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.977523449280556e-06</v>
+        <v>0.000160530118128123</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>10.00989227016003</v>
+        <v>9.469996826378466</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.000160530118128123</v>
+        <v>1.211023890612776</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.469996826378466</v>
+        <v>0.01439647582163076</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.211023890612776</v>
+        <v>2.752843378967101</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01439647582163076</v>
+        <v>0.9515161914552053</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.752843378967101</v>
+        <v>1.750750832928138</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9515161914552053</v>
+        <v>9</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.750750832928138</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1637912230402246</v>
       </c>
     </row>
@@ -5471,72 +5339,66 @@
         <v>1.360854221378588e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3441769988337699</v>
+        <v>4.637813547870448e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.17459304860454</v>
+        <v>2.216690154660091e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.637813547870448e-07</v>
+        <v>-0.03444156938515441</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.216690154660091e-06</v>
+        <v>0.1016324279871981</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03444156938515441</v>
+        <v>0.01151489508384221</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1016324279871981</v>
+        <v>1.716441592811182</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01151489508384221</v>
+        <v>1.613104305585223</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.641696215890064</v>
+        <v>4.116601162589426</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.613104305585223</v>
+        <v>2.949965853266444e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.116601162589426</v>
+        <v>59372403.89286409</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.949965853266444e-15</v>
+        <v>1.939521421517372e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>59372403.89286409</v>
+        <v>10.39887254480371</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.939521421517372e-06</v>
+        <v>0.0001595421350232483</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>10.39887254480371</v>
+        <v>10.04958783990085</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001595421350232483</v>
+        <v>1.163533060925207</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.04958783990085</v>
+        <v>0.01611283280605401</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.163533060925207</v>
+        <v>2.602305967158959</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01611283280605401</v>
+        <v>0.9513856999247401</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.602305967158959</v>
+        <v>1.757376263554649</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9513856999247401</v>
+        <v>12</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.757376263554649</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1709038041519033</v>
       </c>
     </row>
@@ -5551,72 +5413,66 @@
         <v>1.309461378802933e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3176726569882707</v>
+        <v>4.509034621739728e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.209211972876147</v>
+        <v>2.21217242211884e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.509034621739728e-07</v>
+        <v>-0.03301198206757863</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.21217242211884e-06</v>
+        <v>0.1061345047160644</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.03301198206757863</v>
+        <v>0.01235301664707694</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1061345047160644</v>
+        <v>1.711849537139426</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01235301664707694</v>
+        <v>1.608827932915157</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.631502672053439</v>
+        <v>4.064503740287719</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.608827932915157</v>
+        <v>3.026073821972592e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.064503740287719</v>
+        <v>57203068.58965813</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.026073821972592e-15</v>
+        <v>2.011105302286103e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>57203068.58965813</v>
+        <v>9.901891695275756</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.011105302286103e-06</v>
+        <v>0.0001572401994877529</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>9.901891695275756</v>
+        <v>9.599100875913635</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001572401994877529</v>
+        <v>1.186792756224075</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.599100875913635</v>
+        <v>0.01448854244565455</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.186792756224075</v>
+        <v>2.680208625586063</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01448854244565455</v>
+        <v>0.9504780668899832</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.680208625586063</v>
+        <v>1.762337418922873</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9504780668899832</v>
+        <v>12</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.762337418922873</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.168732368020596</v>
       </c>
     </row>
@@ -5631,72 +5487,66 @@
         <v>1.260798975340534e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.2818887991897172</v>
+        <v>4.317961673199396e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.257716002396201</v>
+        <v>2.208112605533277e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.317961673199396e-07</v>
+        <v>-0.02982520720267968</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.208112605533277e-06</v>
+        <v>0.1108235401434348</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.02982520720267968</v>
+        <v>0.01316820972982497</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1108235401434348</v>
+        <v>1.706091610402118</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01316820972982497</v>
+        <v>1.591101180322599</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.621050601447114</v>
+        <v>3.904235354456548</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.591101180322599</v>
+        <v>3.279612960014993e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.904235354456548</v>
+        <v>51027522.45950571</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.279612960014993e-15</v>
+        <v>2.235709679216437e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>51027522.45950571</v>
+        <v>8.539482620777584</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.235709679216437e-06</v>
+        <v>0.0001695186785941721</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>8.539482620777584</v>
+        <v>8.571134096797747</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001695186785941721</v>
+        <v>1.41960836369352</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.571134096797747</v>
+        <v>0.01245357779063395</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.41960836369352</v>
+        <v>2.803823095899832</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01245357779063395</v>
+        <v>0.9506642678079701</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.803823095899832</v>
+        <v>1.77666454525385</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9506642678079701</v>
+        <v>12</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.77666454525385</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1509300789773393</v>
       </c>
     </row>
@@ -5711,72 +5561,66 @@
         <v>1.217932816011885e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.2421036702860827</v>
+        <v>4.086563377631668e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.305073719373524</v>
+        <v>2.20470628620029e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.086563377631668e-07</v>
+        <v>-0.0249795122134569</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.20470628620029e-06</v>
+        <v>0.1154864143535454</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.0249795122134569</v>
+        <v>0.01395694862562764</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1154864143535454</v>
+        <v>1.676792624047486</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01395694862562764</v>
+        <v>1.701487293669545</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.588898572923101</v>
+        <v>3.868299242418432</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.701487293669545</v>
+        <v>3.340830548968548e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.868299242418432</v>
+        <v>50794110.74534706</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.340830548968548e-15</v>
+        <v>2.228967546447618e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>50794110.74534706</v>
+        <v>8.619482083572802</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.228967546447618e-06</v>
+        <v>0.0001837196109662118</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>8.619482083572802</v>
+        <v>9.119634226517112</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001837196109662118</v>
+        <v>1.413299049264829</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.119634226517112</v>
+        <v>0.01527954271126951</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.413299049264829</v>
+        <v>2.726152826384189</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01527954271126951</v>
+        <v>0.9507837055471028</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.726152826384189</v>
+        <v>1.797529459101966</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9507837055471028</v>
+        <v>10</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.797529459101966</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1429651079385926</v>
       </c>
     </row>
@@ -5791,72 +5635,66 @@
         <v>1.182825134348257e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.204019769950084</v>
+        <v>3.84438448587138e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.342076111584437</v>
+        <v>2.2020182538915e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.84438448587138e-07</v>
+        <v>-0.0198121469062725</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.2020182538915e-06</v>
+        <v>0.118686963764048</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.0198121469062725</v>
+        <v>0.01447526137932522</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.118686963764048</v>
+        <v>1.67984218533553</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01447526137932522</v>
+        <v>1.70844992833739</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.590590432306448</v>
+        <v>3.813470070577414</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.70844992833739</v>
+        <v>3.43758851066069e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.813470070577414</v>
+        <v>50843234.87697542</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.43758851066069e-15</v>
+        <v>2.232853621057109e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>50843234.87697542</v>
+        <v>8.886285009460709</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.232853621057109e-06</v>
+        <v>0.0001749707611142011</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>8.886285009460709</v>
+        <v>10.62934588447248</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001749707611142011</v>
+        <v>1.155777653958414</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.62934588447248</v>
+        <v>0.01976872044119982</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.155777653958414</v>
+        <v>2.566315805460986</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01976872044119982</v>
+        <v>0.950805723075933</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.566315805460986</v>
+        <v>1.801949851286358</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.950805723075933</v>
+        <v>10</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.801949851286358</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1548933064806347</v>
       </c>
     </row>
@@ -5871,72 +5709,66 @@
         <v>1.155922693053821e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.1731420733726106</v>
+        <v>3.604151649944153e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.363883829581408</v>
+        <v>2.199984209583426e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.604151649944153e-07</v>
+        <v>-0.01521064806033307</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.199984209583426e-06</v>
+        <v>0.1198974637600912</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.01521064806033307</v>
+        <v>0.01460396496596449</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1198974637600912</v>
+        <v>1.665546119257653</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01460396496596449</v>
+        <v>1.663900952073875</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.571379585183419</v>
+        <v>3.513761715266145</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.663900952073875</v>
+        <v>4.285923188922005e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.513761715266145</v>
+        <v>42731531.39648186</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>4.285923188922005e-15</v>
+        <v>2.660035635025024e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>42731531.39648186</v>
+        <v>7.826026205961577</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.660035635025024e-06</v>
+        <v>0.0001658651151796115</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>7.826026205961577</v>
+        <v>10.16704253263793</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001658651151796115</v>
+        <v>1.171544079838782</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.16704253263793</v>
+        <v>0.01714527026503957</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.171544079838782</v>
+        <v>2.636840708453527</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01714527026503957</v>
+        <v>0.9501024788566137</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.636840708453527</v>
+        <v>1.797282535939299</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9501024788566137</v>
+        <v>5</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.797282535939299</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1590758147081141</v>
       </c>
     </row>
@@ -5951,72 +5783,66 @@
         <v>1.135915114297227e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.152664431850261</v>
+        <v>3.473233525118972e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.368496677616547</v>
+        <v>2.198430773649846e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3.473233525118972e-07</v>
+        <v>-0.01217134784778236</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.198430773649846e-06</v>
+        <v>0.1197009876399388</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.01217134784778236</v>
+        <v>0.01447411025057043</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1197009876399388</v>
+        <v>1.648377144283678</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01447411025057043</v>
+        <v>1.620454745393029</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.552807274630456</v>
+        <v>3.314304069637708</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.620454745393029</v>
+        <v>4.817306692984684e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.314304069637708</v>
+        <v>38601202.39699163</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4.817306692984684e-15</v>
+        <v>2.934109180726812e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>38601202.39699163</v>
+        <v>7.178041453967941</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.934109180726812e-06</v>
+        <v>0.0001623588027617175</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>7.178041453967941</v>
+        <v>8.94788802141797</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001623588027617175</v>
+        <v>1.295534723216752</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.94788802141797</v>
+        <v>0.01299920884259311</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.295534723216752</v>
+        <v>2.809831923299249</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01299920884259311</v>
+        <v>0.9493020276353848</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.809831923299249</v>
+        <v>1.792579064373951</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9493020276353848</v>
+        <v>5</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.792579064373951</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1550071515072226</v>
       </c>
     </row>
@@ -6031,72 +5857,66 @@
         <v>1.120708309696583e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.1418409876306087</v>
+        <v>3.473233525118972e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.358851625129947</v>
+        <v>2.19717525177281e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3.473233525118972e-07</v>
+        <v>-0.0102506620090519</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.19717525177281e-06</v>
+        <v>0.1195450648004014</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.0102506620090519</v>
+        <v>0.01439418962851271</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1195450648004014</v>
+        <v>1.646274746030901</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01439418962851271</v>
+        <v>1.584281860796205</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.547307500186238</v>
+        <v>3.343302300236101</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.584281860796205</v>
+        <v>4.734102997606449e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.343302300236101</v>
+        <v>40144365.71893364</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4.734102997606449e-15</v>
+        <v>2.823935923555466e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>40144365.71893364</v>
+        <v>7.629338836412812</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.823935923555466e-06</v>
+        <v>0.0001639689546323525</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>7.629338836412812</v>
+        <v>9.050711033305673</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001639689546323525</v>
+        <v>1.298552945257275</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.050711033305673</v>
+        <v>0.01343157762139367</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.298552945257275</v>
+        <v>2.827837824594286</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01343157762139367</v>
+        <v>0.9484430210549545</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.827837824594286</v>
+        <v>1.820167245696777</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9484430210549545</v>
+        <v>5</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.820167245696777</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1572096251273258</v>
       </c>
     </row>
@@ -6111,72 +5931,66 @@
         <v>1.108697939413442e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.1379612067774247</v>
+        <v>3.473233525118972e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.340506016918417</v>
+        <v>2.196108225775337e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3.473233525118972e-07</v>
+        <v>-0.009019758952731332</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.196108225775337e-06</v>
+        <v>0.1197861398365311</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.009019758952731332</v>
+        <v>0.01442885563753174</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1197861398365311</v>
+        <v>1.641356480364969</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01442885563753174</v>
+        <v>1.54809167054974</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.545792362329127</v>
+        <v>3.450408996723251</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.54809167054974</v>
+        <v>4.444755147957164e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.450408996723251</v>
+        <v>42803597.61807685</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>4.444755147957164e-15</v>
+        <v>2.647588029285434e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>42803597.61807685</v>
+        <v>8.143449117255294</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.647588029285434e-06</v>
+        <v>0.0001700521229063423</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>8.143449117255294</v>
+        <v>10.13429128417943</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001700521229063423</v>
+        <v>1.207611308369166</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.13429128417943</v>
+        <v>0.01746500939520822</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.207611308369166</v>
+        <v>2.73597738039084</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01746500939520822</v>
+        <v>0.9475229881999868</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.73597738039084</v>
+        <v>1.811908136733825</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9475229881999868</v>
+        <v>10</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.811908136733825</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.162757644234193</v>
       </c>
     </row>
@@ -6191,72 +6005,66 @@
         <v>1.098662882695065e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.1383593001207097</v>
+        <v>3.473233525118972e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.317713700714843</v>
+        <v>2.195155521670715e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.473233525118972e-07</v>
+        <v>-0.008346498895341267</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.195155521670715e-06</v>
+        <v>0.1204371960128399</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.008346498895341267</v>
+        <v>0.01457431559133311</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1204371960128399</v>
+        <v>1.633149871570338</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01457431559133311</v>
+        <v>1.503630046560625</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.537355979541364</v>
+        <v>3.673071054154525</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.503630046560625</v>
+        <v>3.922205436404663e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.673071054154525</v>
+        <v>47286059.06281413</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.922205436404663e-15</v>
+        <v>2.381961957035003e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>47286059.06281413</v>
+        <v>8.7699391089174</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.381961957035003e-06</v>
+        <v>0.0001776145648752526</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>8.7699391089174</v>
+        <v>10.91643507123989</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001776145648752526</v>
+        <v>1.163586235167733</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.91643507123989</v>
+        <v>0.02116607098356504</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.163586235167733</v>
+        <v>2.637347688507005</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02116607098356504</v>
+        <v>0.9465243130817078</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.637347688507005</v>
+        <v>1.801879159828317</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9465243130817078</v>
+        <v>10</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.801879159828317</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1660330659886773</v>
       </c>
     </row>
@@ -6271,72 +6079,66 @@
         <v>1.089572765283381e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.1407506402400936</v>
+        <v>3.473233525118972e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.292844505769675</v>
+        <v>2.194257567687999e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3.473233525118972e-07</v>
+        <v>-0.008155830069972465</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.194257567687999e-06</v>
+        <v>0.1213680138918902</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.008155830069972465</v>
+        <v>0.01479671339524619</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1213680138918902</v>
+        <v>1.655079047165278</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01479671339524619</v>
+        <v>1.575099522089507</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.561151639441166</v>
+        <v>3.68305887824274</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.575099522089507</v>
+        <v>3.483818402212649e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.68305887824274</v>
+        <v>53778085.13349863</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.483818402212649e-15</v>
+        <v>2.105468817547221e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>53778085.13349863</v>
+        <v>10.07549002736833</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.105468817547221e-06</v>
+        <v>0.0001808640721769593</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>10.07549002736833</v>
+        <v>9.641534840049319</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001808640721769593</v>
+        <v>1.319761717872712</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.641534840049319</v>
+        <v>0.01681297838612935</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.319761717872712</v>
+        <v>2.781988273013587</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01681297838612935</v>
+        <v>0.9485403008419361</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.781988273013587</v>
+        <v>1.812912621037835</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9485403008419361</v>
+        <v>10</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.812912621037835</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1532743393213355</v>
       </c>
     </row>
@@ -6713,7 +6515,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.587283242315548</v>
+        <v>1.625020644661712</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.793918790039315</v>
@@ -6802,7 +6604,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.611124991821018</v>
+        <v>1.640583411944633</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.524184743145646</v>
@@ -6891,7 +6693,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.616773496369696</v>
+        <v>1.639426554800185</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.653686384671108</v>
@@ -6980,7 +6782,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.646051490876274</v>
+        <v>1.66724344128379</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.318163544773087</v>
@@ -7069,7 +6871,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.655614535507186</v>
+        <v>1.66617066078634</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.48593833369283</v>
@@ -7158,7 +6960,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.674734008260121</v>
+        <v>1.68096523310077</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.726518266334371</v>
@@ -7247,7 +7049,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.697740869555675</v>
+        <v>1.698129172428301</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.569182153356075</v>
@@ -7336,7 +7138,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.676669705458058</v>
+        <v>1.680883471483796</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.800475920729259</v>
@@ -7425,7 +7227,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.678085301005797</v>
+        <v>1.681313504609021</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.787460427621277</v>
@@ -7514,7 +7316,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.673846910024531</v>
+        <v>1.674386170907077</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.547724716243039</v>
@@ -7603,7 +7405,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.665951990412585</v>
+        <v>1.654682485842387</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.52645125660514</v>
@@ -7692,7 +7494,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.666571799834839</v>
+        <v>1.656101738094683</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.442560639939535</v>
@@ -7781,7 +7583,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.680462425094532</v>
+        <v>1.666096252097339</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.346307888666551</v>
@@ -7870,7 +7672,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.676687552202442</v>
+        <v>1.656133392536535</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.470282255884366</v>
@@ -7959,7 +7761,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.676562031236995</v>
+        <v>1.653656770928332</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.501664298261726</v>
@@ -8048,7 +7850,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.66931212844716</v>
+        <v>1.649211322062969</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.611493178513792</v>
@@ -8137,7 +7939,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.650401060122198</v>
+        <v>1.634691727754946</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.460292047246601</v>
@@ -8226,7 +8028,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.638225201949567</v>
+        <v>1.625870613783401</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.5076598253089</v>
@@ -8315,7 +8117,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.635405508960732</v>
+        <v>1.620977722325097</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.375058784783261</v>
@@ -8404,7 +8206,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.637515898780483</v>
+        <v>1.621776644428151</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.22648801704182</v>
@@ -8493,7 +8295,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.642097686773891</v>
+        <v>1.628755915474869</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.27882347413526</v>
@@ -8582,7 +8384,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.627094463702265</v>
+        <v>1.62056033907034</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.400227154730293</v>
@@ -8671,7 +8473,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.672206385906054</v>
+        <v>1.656630735071545</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.472684208049052</v>
@@ -8760,7 +8562,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.678194230875353</v>
+        <v>1.663315383935416</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.227026935317838</v>
@@ -8849,7 +8651,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.681100519107408</v>
+        <v>1.665277673311043</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.444824646750384</v>
@@ -8938,7 +8740,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.683646292708693</v>
+        <v>1.668241898240617</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.38385254594954</v>
@@ -9027,7 +8829,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.676593551751469</v>
+        <v>1.658029457993591</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.408128410305149</v>
@@ -9116,7 +8918,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.678836056305269</v>
+        <v>1.658307116921282</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.050087021018355</v>
@@ -9205,7 +9007,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.668535014105108</v>
+        <v>1.650512457291545</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.273585911984215</v>
@@ -9294,7 +9096,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.665227464654097</v>
+        <v>1.655680619913223</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.245665420966506</v>
@@ -9383,7 +9185,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.662843025441429</v>
+        <v>1.652510849036785</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.371946417531257</v>
@@ -9472,7 +9274,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.669494555064128</v>
+        <v>1.655880999590771</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.088360210546971</v>
@@ -9561,7 +9363,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.666070648255034</v>
+        <v>1.651725775127477</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.345492661469065</v>
@@ -9650,7 +9452,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.666000020457203</v>
+        <v>1.653206070811219</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.393790066612119</v>
@@ -9739,7 +9541,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.665931163986448</v>
+        <v>1.651729819929664</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.295607766600293</v>
@@ -9828,7 +9630,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.675220181967488</v>
+        <v>1.652844729911092</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.767230349576828</v>
@@ -9917,7 +9719,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.6743382795424</v>
+        <v>1.648637684100161</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.187174508742019</v>
@@ -10006,7 +9808,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.673455538039912</v>
+        <v>1.648392714990087</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.325156152842699</v>
@@ -10095,7 +9897,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.662625160354509</v>
+        <v>1.636718323639774</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.264853128633841</v>
@@ -10184,7 +9986,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.65750847034308</v>
+        <v>1.63036551494013</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.395442778836786</v>
@@ -10273,7 +10075,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.650815384715062</v>
+        <v>1.620247313187282</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.591449573592167</v>
@@ -10362,7 +10164,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.651632632110197</v>
+        <v>1.617991929962941</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.282027859403622</v>
@@ -10451,7 +10253,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.660183980069641</v>
+        <v>1.623635814169635</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.182844949669679</v>
@@ -10540,7 +10342,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.660347209451899</v>
+        <v>1.625636962433862</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.345985125406284</v>
@@ -10629,7 +10431,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.653026020074947</v>
+        <v>1.611031700084725</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.489307134971262</v>
@@ -10718,7 +10520,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.656863659647912</v>
+        <v>1.615526877880467</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.901087347811492</v>
@@ -10807,7 +10609,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.644827928092102</v>
+        <v>1.607540190429339</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.346225977815852</v>
@@ -10896,7 +10698,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.659055313579878</v>
+        <v>1.624164154309077</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.313152301689735</v>
@@ -10985,7 +10787,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.658616084201777</v>
+        <v>1.626497608324485</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.458804841402694</v>
@@ -11074,7 +10876,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.669425157302827</v>
+        <v>1.634812990123062</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.488571776445469</v>
@@ -11163,7 +10965,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.680016807741538</v>
+        <v>1.651374637758276</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.283183157634166</v>
@@ -11252,7 +11054,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.690997594534224</v>
+        <v>1.660833965922965</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.102502573224025</v>
@@ -11341,7 +11143,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.701551958474962</v>
+        <v>1.671694771312298</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.546381170861821</v>
@@ -11430,7 +11232,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.698760383214565</v>
+        <v>1.671456211054618</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.48049863874097</v>
@@ -11519,7 +11321,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.701158767106539</v>
+        <v>1.674073108418368</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.567271194066122</v>
@@ -11608,7 +11410,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.697526053991205</v>
+        <v>1.669883012636894</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.102938670936009</v>
@@ -11697,7 +11499,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.680457607047979</v>
+        <v>1.657470835250663</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.256928163847562</v>
@@ -11786,7 +11588,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.67993459084362</v>
+        <v>1.65176833489753</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.136765535651604</v>
@@ -11875,7 +11677,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.684097145627864</v>
+        <v>1.662306891923969</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.388413021273521</v>
@@ -11964,7 +11766,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.671726384044612</v>
+        <v>1.655985897432166</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.371034494923026</v>
@@ -12053,7 +11855,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.644500276808722</v>
+        <v>1.630499468085516</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.915092641006559</v>
@@ -12142,7 +11944,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.653828821450571</v>
+        <v>1.638736878900226</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.25712464811416</v>
@@ -12231,7 +12033,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.643404250022222</v>
+        <v>1.629137229382255</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.083958889856365</v>
@@ -12320,7 +12122,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.633192175363394</v>
+        <v>1.619171736429512</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.168321862233209</v>
@@ -12409,7 +12211,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.616740693192725</v>
+        <v>1.608002827675877</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.182259081985269</v>
@@ -12498,7 +12300,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.60019716367649</v>
+        <v>1.593174618351429</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.109600002852293</v>
@@ -12587,7 +12389,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.559575294865732</v>
+        <v>1.543861455957694</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.187571307742322</v>
@@ -12676,7 +12478,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.434919888299956</v>
+        <v>1.440697058736152</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.901161333584263</v>
@@ -12765,7 +12567,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.444971164321249</v>
+        <v>1.454437222804001</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.898739161005913</v>
@@ -12854,7 +12656,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.423132848021375</v>
+        <v>1.43459959679558</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.902429244638949</v>
@@ -12943,7 +12745,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.411535095130436</v>
+        <v>1.424431456185283</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.884857602819264</v>
@@ -13032,7 +12834,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.406379751624124</v>
+        <v>1.424093748888484</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.895347829276743</v>
@@ -13121,7 +12923,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.397864423500827</v>
+        <v>1.419803542990755</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.862347233620181</v>
@@ -13210,7 +13012,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.388005673110938</v>
+        <v>1.403467711073643</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.897155153829341</v>
@@ -13299,7 +13101,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.377446662929136</v>
+        <v>1.385668029266461</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.922813462722901</v>
@@ -13388,7 +13190,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.342942841289619</v>
+        <v>1.353946174022209</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.022678674906687</v>
@@ -13674,7 +13476,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.424891774270575</v>
+        <v>1.446049724926172</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.993479448456353</v>
@@ -13763,7 +13565,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.436048019758246</v>
+        <v>1.458115220642859</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.97061785488008</v>
@@ -13852,7 +13654,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.430207753159274</v>
+        <v>1.449786500224695</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.93154541234228</v>
@@ -13941,7 +13743,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.447864973103049</v>
+        <v>1.460334523917211</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.829971956750653</v>
@@ -14030,7 +13832,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.509164061175805</v>
+        <v>1.521829211398894</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.036749207389934</v>
@@ -14119,7 +13921,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.599894568204919</v>
+        <v>1.600178583745026</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.448340169198911</v>
@@ -14208,7 +14010,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.617892394835301</v>
+        <v>1.620670752971257</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.436805914894501</v>
@@ -14297,7 +14099,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.646563710440423</v>
+        <v>1.639991222075553</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.399387839570224</v>
@@ -14386,7 +14188,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.652948839368162</v>
+        <v>1.63555881124829</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.306815545858857</v>
@@ -14475,7 +14277,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.651474640947696</v>
+        <v>1.631155643595569</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.380716398624159</v>
@@ -14564,7 +14366,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.678728267783253</v>
+        <v>1.653183660234135</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.775066361335945</v>
@@ -14653,7 +14455,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.673268549719552</v>
+        <v>1.642747852729239</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.801932885283063</v>
@@ -14742,7 +14544,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.682603930054134</v>
+        <v>1.645107906620026</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.683406346724663</v>
@@ -14831,7 +14633,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.67997123982315</v>
+        <v>1.636017623567335</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.818937072635555</v>
@@ -14920,7 +14722,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.667389204024059</v>
+        <v>1.624514959808385</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.727391412941261</v>
@@ -15009,7 +14811,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.680416902075692</v>
+        <v>1.636916762038253</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.307273206756285</v>
@@ -15098,7 +14900,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.688739348243131</v>
+        <v>1.645001517735724</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.483151162366122</v>
@@ -15187,7 +14989,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.678089202076852</v>
+        <v>1.634529462487847</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.762784853232197</v>
@@ -15276,7 +15078,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.666896121908479</v>
+        <v>1.632105271650558</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.414137885508505</v>
@@ -15365,7 +15167,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.647831517492832</v>
+        <v>1.617207169257786</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.903391373619978</v>
@@ -15454,7 +15256,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.633761051520781</v>
+        <v>1.610273968349198</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.127662252223539</v>
@@ -15543,7 +15345,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.629582463192035</v>
+        <v>1.606312485037894</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.125045483891022</v>
@@ -15632,7 +15434,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.634018739720418</v>
+        <v>1.612471249235341</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.067636421819667</v>
@@ -15721,7 +15523,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.642546135722015</v>
+        <v>1.624587295558134</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.955202082045949</v>
@@ -15810,7 +15612,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.651446874254324</v>
+        <v>1.626215169348107</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.997011566560051</v>
@@ -15899,7 +15701,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.659248065469743</v>
+        <v>1.634528215617075</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.073568660447882</v>
@@ -15988,7 +15790,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.65832442383427</v>
+        <v>1.633796001327271</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.853190850195787</v>
@@ -16077,7 +15879,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.653076584936446</v>
+        <v>1.632169899950018</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.969210662490256</v>
@@ -16166,7 +15968,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.652551834720508</v>
+        <v>1.629570130955978</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.059920024877855</v>
@@ -16255,7 +16057,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.649782320098389</v>
+        <v>1.621463991135992</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.179835908472301</v>
@@ -16344,7 +16146,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.637028574251012</v>
+        <v>1.612879625312706</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.10640225777755</v>
@@ -16433,7 +16235,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625697136953277</v>
+        <v>1.60147212677776</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.015691458322375</v>
@@ -16522,7 +16324,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.625792961128766</v>
+        <v>1.605566363999769</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.1700289448926</v>
@@ -16611,7 +16413,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.627972162117791</v>
+        <v>1.600527459660563</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.578914933541565</v>
@@ -16700,7 +16502,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.641913221165687</v>
+        <v>1.613552194926081</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.622313586210592</v>
@@ -16789,7 +16591,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.658473514724812</v>
+        <v>1.622000701509237</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.075758911643992</v>
@@ -16878,7 +16680,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.649884507538397</v>
+        <v>1.607961907103204</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.005413169272048</v>
@@ -16967,7 +16769,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.640277821530369</v>
+        <v>1.597723316828307</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.275923353330688</v>
@@ -17056,7 +16858,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.633563069041609</v>
+        <v>1.581635124065939</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.409182734388899</v>
@@ -17145,7 +16947,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.62904321005584</v>
+        <v>1.583056575394845</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.184167084345937</v>
@@ -17234,7 +17036,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.624779678334321</v>
+        <v>1.578076700798925</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.944122902319133</v>
@@ -17323,7 +17125,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.623388578051966</v>
+        <v>1.577349180385847</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.167014350266485</v>
@@ -17412,7 +17214,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.605371504091734</v>
+        <v>1.562700027685511</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.414820590363107</v>
@@ -17501,7 +17303,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.588685157319961</v>
+        <v>1.543212215542808</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.177482133716434</v>
@@ -17590,7 +17392,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.598440202939405</v>
+        <v>1.550625249828399</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.143682616255031</v>
@@ -17679,7 +17481,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.600667389021764</v>
+        <v>1.553393399824785</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.099724436229878</v>
@@ -17768,7 +17570,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.597301683362007</v>
+        <v>1.550649775005024</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.903520360414546</v>
@@ -17857,7 +17659,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.593905510128831</v>
+        <v>1.546051118053203</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.342692042050707</v>
@@ -17946,7 +17748,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.586720621959564</v>
+        <v>1.542403228712803</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.1411435904156</v>
@@ -18035,7 +17837,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.578750514981023</v>
+        <v>1.529886678958988</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.95187914203666</v>
@@ -18124,7 +17926,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.572355310691792</v>
+        <v>1.529823886695769</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.016490372720885</v>
@@ -18213,7 +18015,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.572382561470777</v>
+        <v>1.536247900689116</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.786340607078591</v>
@@ -18302,7 +18104,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.543226568484446</v>
+        <v>1.51468125501849</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.754132507565112</v>
@@ -18391,7 +18193,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.538298587837535</v>
+        <v>1.517800175779435</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.729147112470563</v>
@@ -18480,7 +18282,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.542493178021146</v>
+        <v>1.518353707421076</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.700519766390415</v>
@@ -18569,7 +18371,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.540747292945792</v>
+        <v>1.511658349414171</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.673051535224701</v>
@@ -18658,7 +18460,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.521789800909316</v>
+        <v>1.494242893628567</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.597658271327218</v>
@@ -18747,7 +18549,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.531904173582728</v>
+        <v>1.503523240095333</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.804971057803521</v>
@@ -18836,7 +18638,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.543773688049921</v>
+        <v>1.520586316942891</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.773144383502151</v>
@@ -18925,7 +18727,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.52355665759008</v>
+        <v>1.510005552545956</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.759779696905963</v>
@@ -19014,7 +18816,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.514855867938528</v>
+        <v>1.502199536281908</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.757860954368854</v>
@@ -19103,7 +18905,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.526694678183042</v>
+        <v>1.511048540742144</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.721225047130953</v>
@@ -19192,7 +18994,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.534404951788584</v>
+        <v>1.519786308868062</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.686202262951824</v>
@@ -19281,7 +19083,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.523228776010678</v>
+        <v>1.51291092667933</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.712565723095374</v>
@@ -19370,7 +19172,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.534097641451076</v>
+        <v>1.523775625365013</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.818823025068069</v>
@@ -19459,7 +19261,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.523612098046092</v>
+        <v>1.516578026825349</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.867312160082699</v>
@@ -19548,7 +19350,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.525918708796316</v>
+        <v>1.520526439921097</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.838854241678483</v>
@@ -19637,7 +19439,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.529535861014196</v>
+        <v>1.512457345661109</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.858097665524097</v>
@@ -19726,7 +19528,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.438771369178402</v>
+        <v>1.438885837257955</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.882921388597453</v>
@@ -19815,7 +19617,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.439656726433799</v>
+        <v>1.444824919378293</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.892570616305601</v>
@@ -19904,7 +19706,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.443307395741187</v>
+        <v>1.450632914767965</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.896062150839888</v>
@@ -19993,7 +19795,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.462767431161152</v>
+        <v>1.472011078915629</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.868520996846189</v>
@@ -20082,7 +19884,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.468579461916207</v>
+        <v>1.476848299230542</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.898219823364579</v>
@@ -20171,7 +19973,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.465200076209975</v>
+        <v>1.473949900999062</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.89930107434007</v>
@@ -20260,7 +20062,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.404869016932855</v>
+        <v>1.407315437515189</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.912141184155478</v>
@@ -20349,7 +20151,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.400784520198597</v>
+        <v>1.418039279842291</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.955940817301979</v>
@@ -20635,7 +20437,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.515715882848786</v>
+        <v>1.537583875730803</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.150830313448693</v>
@@ -20724,7 +20526,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.51299795114024</v>
+        <v>1.53019569039787</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.187156375913074</v>
@@ -20813,7 +20615,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.50215157285308</v>
+        <v>1.519959768686748</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.079480090705764</v>
@@ -20902,7 +20704,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.55375025788586</v>
+        <v>1.561215707867973</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.130787977827791</v>
@@ -20991,7 +20793,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.606845679295348</v>
+        <v>1.607056198360537</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.550460049489739</v>
@@ -21080,7 +20882,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.627642719457031</v>
+        <v>1.625803764473859</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.772137853847652</v>
@@ -21169,7 +20971,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.643015322328221</v>
+        <v>1.637455526688389</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.509244390661622</v>
@@ -21258,7 +21060,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.634210442201314</v>
+        <v>1.62693605645515</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.666334022487948</v>
@@ -21347,7 +21149,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.649606777051597</v>
+        <v>1.633687497253186</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.943667824884767</v>
@@ -21436,7 +21238,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.651033489467939</v>
+        <v>1.628582355872978</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.682612643068639</v>
@@ -21525,7 +21327,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.641124644247135</v>
+        <v>1.607193622597508</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.736605386668794</v>
@@ -21614,7 +21416,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.624920359681295</v>
+        <v>1.590196391234361</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.634344267381547</v>
@@ -21703,7 +21505,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.619839354756243</v>
+        <v>1.580846363401879</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.96086086854405</v>
@@ -21792,7 +21594,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.615671534561065</v>
+        <v>1.574648100842305</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.040880737230424</v>
@@ -21881,7 +21683,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.615502185622863</v>
+        <v>1.565981138518169</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.930237511034148</v>
@@ -21970,7 +21772,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.617249394903026</v>
+        <v>1.567962783600826</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.013695079782928</v>
@@ -22059,7 +21861,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.608900801014072</v>
+        <v>1.562609867096802</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.842009354513887</v>
@@ -22148,7 +21950,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.607785675734165</v>
+        <v>1.565092945498649</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.071158758696186</v>
@@ -22237,7 +22039,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.607628234267489</v>
+        <v>1.569683546681136</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.101635347101955</v>
@@ -22326,7 +22128,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.605251825177325</v>
+        <v>1.570509912739904</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.731054704198969</v>
@@ -22415,7 +22217,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.60026392267948</v>
+        <v>1.566748183193697</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.108572449092477</v>
@@ -22504,7 +22306,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.593614870916519</v>
+        <v>1.56434768946085</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.141487043221291</v>
@@ -22593,7 +22395,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.607769455018802</v>
+        <v>1.574482225488213</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.133075774149894</v>
@@ -22682,7 +22484,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.598452985638282</v>
+        <v>1.571487989397168</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.751555915022713</v>
@@ -22771,7 +22573,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.563907190005654</v>
+        <v>1.550874988340007</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.915891550641786</v>
@@ -22860,7 +22662,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.584321476039074</v>
+        <v>1.566603582905955</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.726571914759981</v>
@@ -22949,7 +22751,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590930233268838</v>
+        <v>1.567317205544965</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.714227044854866</v>
@@ -23038,7 +22840,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.599593407730669</v>
+        <v>1.573556888232411</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.665614744741052</v>
@@ -23127,7 +22929,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.58431106492338</v>
+        <v>1.560503740902789</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.871859964235578</v>
@@ -23216,7 +23018,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.58158368691695</v>
+        <v>1.567260914216372</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.902828957474541</v>
@@ -23305,7 +23107,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.585481184573613</v>
+        <v>1.56709995226368</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.825631645522434</v>
@@ -23394,7 +23196,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.591509876166048</v>
+        <v>1.571023685456399</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.757330946629836</v>
@@ -23483,7 +23285,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.595607337360366</v>
+        <v>1.572650045575593</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.913723452543587</v>
@@ -23572,7 +23374,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.595488819285132</v>
+        <v>1.572799929810973</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.755699334212299</v>
@@ -23661,7 +23463,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.590402153095377</v>
+        <v>1.56819898086098</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.637015595675544</v>
@@ -23750,7 +23552,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59713947001229</v>
+        <v>1.566505128624711</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.72034197652602</v>
@@ -23839,7 +23641,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.596588470052981</v>
+        <v>1.568197500595053</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.898345114347268</v>
@@ -23928,7 +23730,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.593546470461555</v>
+        <v>1.568931532143135</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.688944999303245</v>
@@ -24017,7 +23819,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.603819913673183</v>
+        <v>1.577502664045171</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.417299851430442</v>
@@ -24106,7 +23908,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.635609752099336</v>
+        <v>1.599014057016301</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.416279732726321</v>
@@ -24195,7 +23997,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.6266701753245</v>
+        <v>1.592542070931302</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.314818352517775</v>
@@ -24284,7 +24086,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.624850545261054</v>
+        <v>1.593840984808558</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.315835070998486</v>
@@ -24373,7 +24175,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.61505355126973</v>
+        <v>1.58843829322991</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.376483570341111</v>
@@ -24462,7 +24264,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.629566614899344</v>
+        <v>1.600016539205222</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.276899623836476</v>
@@ -24551,7 +24353,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.621445611555237</v>
+        <v>1.592091474046558</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.241513616851055</v>
@@ -24640,7 +24442,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.612993083545875</v>
+        <v>1.585350837821533</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.410415620666881</v>
@@ -24729,7 +24531,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.603139740404013</v>
+        <v>1.5795634330553</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.248735937864663</v>
@@ -24818,7 +24620,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.585297278519682</v>
+        <v>1.565865069324263</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.842525595357268</v>
@@ -24907,7 +24709,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.576334987949817</v>
+        <v>1.551887384774949</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.127061931891482</v>
@@ -24996,7 +24798,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.586526977842822</v>
+        <v>1.545440299269586</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.829671764391251</v>
@@ -25085,7 +24887,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.588914338811442</v>
+        <v>1.554731536767898</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.165911807772525</v>
@@ -25174,7 +24976,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.590109735518921</v>
+        <v>1.549291499767846</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.102959039980199</v>
@@ -25263,7 +25065,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.579457648194411</v>
+        <v>1.541928115880271</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.109074968575805</v>
@@ -25352,7 +25154,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.577035344057138</v>
+        <v>1.537788950368419</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.138162405620461</v>
@@ -25441,7 +25243,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.574972233337659</v>
+        <v>1.535107797747466</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.006604150424642</v>
@@ -25530,7 +25332,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.568862608384494</v>
+        <v>1.527837666438662</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.802163862893321</v>
@@ -25619,7 +25421,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.56364035152959</v>
+        <v>1.514805091099003</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.923460395339067</v>
@@ -25708,7 +25510,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.560120610347073</v>
+        <v>1.501489616630932</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.916988105973171</v>
@@ -25797,7 +25599,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.567469625821885</v>
+        <v>1.512166679523728</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.953179128695671</v>
@@ -25886,7 +25688,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.564155182679173</v>
+        <v>1.51656829998137</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.065963378329243</v>
@@ -25975,7 +25777,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.569494868587133</v>
+        <v>1.521639662538241</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.086690487773182</v>
@@ -26064,7 +25866,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.596597034429017</v>
+        <v>1.546889007236386</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.846916316622069</v>
@@ -26153,7 +25955,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.600980953033993</v>
+        <v>1.5478701373604</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.476669401420734</v>
@@ -26242,7 +26044,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.611083575807803</v>
+        <v>1.558561684616721</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.429325512147901</v>
@@ -26331,7 +26133,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.609208805192487</v>
+        <v>1.568777420275103</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.334062301610628</v>
@@ -26420,7 +26222,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.574532001845183</v>
+        <v>1.539456842647557</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.366003878082847</v>
@@ -26509,7 +26311,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.581743562791582</v>
+        <v>1.54568066490036</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.277015409231867</v>
@@ -26598,7 +26400,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.586015456825206</v>
+        <v>1.558218232755542</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.572321757258261</v>
@@ -26687,7 +26489,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.597555423741369</v>
+        <v>1.574631476510622</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.428507888463745</v>
@@ -26776,7 +26578,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.603376876324103</v>
+        <v>1.584243635783859</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.639794654924763</v>
@@ -26865,7 +26667,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.614482204891565</v>
+        <v>1.59934993321543</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.691458494375137</v>
@@ -26954,7 +26756,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.619151711068478</v>
+        <v>1.612445240954974</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.673274008136106</v>
@@ -27043,7 +26845,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.620301326638348</v>
+        <v>1.620408995373612</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.540742561043433</v>
@@ -27132,7 +26934,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.603456749276294</v>
+        <v>1.602781590565529</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.583175470460256</v>
@@ -27221,7 +27023,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.566955234761611</v>
+        <v>1.569765699482348</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.619344228908735</v>
@@ -27310,7 +27112,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.567705202911046</v>
+        <v>1.579011151342181</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.617493938868976</v>
@@ -27596,7 +27398,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.544837963454363</v>
+        <v>1.531039883703564</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.016735340634516</v>
@@ -27685,7 +27487,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.549498823254918</v>
+        <v>1.532527998366046</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.953187856550883</v>
@@ -27774,7 +27576,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.544113128420305</v>
+        <v>1.524691497618838</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.977413587197896</v>
@@ -27863,7 +27665,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.564322507299874</v>
+        <v>1.541788751319322</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.014723991685269</v>
@@ -27952,7 +27754,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.623462613925735</v>
+        <v>1.605209198645696</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.945484512089606</v>
@@ -28041,7 +27843,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.734359815087082</v>
+        <v>1.708395422507898</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.73157918749451</v>
@@ -28130,7 +27932,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.757881197112343</v>
+        <v>1.732853345167773</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.484545964612349</v>
@@ -28219,7 +28021,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.775052393274864</v>
+        <v>1.749379580976681</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.441170142623718</v>
@@ -28308,7 +28110,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.783798115203755</v>
+        <v>1.755884350768409</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.554074420930893</v>
@@ -28397,7 +28199,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.789386459765688</v>
+        <v>1.756834894808721</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.57797528975192</v>
@@ -28486,7 +28288,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.807511402793514</v>
+        <v>1.775963256224488</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.745022963734846</v>
@@ -28575,7 +28377,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.809412682123066</v>
+        <v>1.784404954368661</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.843365132693989</v>
@@ -28664,7 +28466,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.803924451143432</v>
+        <v>1.781711660204034</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.085351140565077</v>
@@ -28753,7 +28555,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.809006453897694</v>
+        <v>1.789452063038729</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.677629465638779</v>
@@ -28842,7 +28644,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.816612597321557</v>
+        <v>1.803244522110902</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.060941437056584</v>
@@ -28931,7 +28733,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.823292401690954</v>
+        <v>1.809358346873613</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.597049921416472</v>
@@ -29020,7 +28822,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.819126789033212</v>
+        <v>1.816423724242852</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.112174741951596</v>
@@ -29109,7 +28911,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.821178340270936</v>
+        <v>1.809656789865532</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.607795420884613</v>
@@ -29198,7 +29000,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.823010557188484</v>
+        <v>1.809168121182916</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.070480773881196</v>
@@ -29287,7 +29089,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.830891648385534</v>
+        <v>1.821175918468191</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.438540128625748</v>
@@ -29376,7 +29178,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.840359193621773</v>
+        <v>1.833048081985828</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.64960784827711</v>
@@ -29465,7 +29267,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.849139533289865</v>
+        <v>1.844098375826034</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.900726539755287</v>
@@ -29554,7 +29356,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.858044035246408</v>
+        <v>1.854395853595849</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.443137632523936</v>
@@ -29643,7 +29445,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.865891001103932</v>
+        <v>1.863910503974928</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.193551770827011</v>
@@ -29732,7 +29534,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.880288465522463</v>
+        <v>1.878485223203193</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.521430165766499</v>
@@ -29821,7 +29623,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.885401423662404</v>
+        <v>1.884031121188081</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.501175807692837</v>
@@ -29910,7 +29712,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.891068298984046</v>
+        <v>1.891680664813322</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.114311581994954</v>
@@ -29999,7 +29801,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.904054247168689</v>
+        <v>1.903064965685963</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.276934501743856</v>
@@ -30088,7 +29890,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.909079369123806</v>
+        <v>1.911743709294744</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.618729992559852</v>
@@ -30177,7 +29979,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.917347819677693</v>
+        <v>1.917533404959055</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.594434228635163</v>
@@ -30266,7 +30068,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.920354535118701</v>
+        <v>1.923089088064898</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.667917675462784</v>
@@ -30355,7 +30157,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.932055016605285</v>
+        <v>1.92527136432188</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.948578551292512</v>
@@ -30444,7 +30246,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.935036510998647</v>
+        <v>1.933580127762508</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.805545776100162</v>
@@ -30533,7 +30335,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.931552611335305</v>
+        <v>1.930241140922351</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.005094909465821</v>
@@ -30622,7 +30424,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.927868613579951</v>
+        <v>1.927083466912616</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.93777278487737</v>
@@ -30711,7 +30513,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.924351109593365</v>
+        <v>1.921252773980807</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.056825239285256</v>
@@ -30800,7 +30602,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.921758499894264</v>
+        <v>1.914941171467487</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.836529173103147</v>
@@ -30889,7 +30691,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.924258544632424</v>
+        <v>1.918298739881418</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.213466074173613</v>
@@ -30978,7 +30780,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.925142425060693</v>
+        <v>1.919645983122925</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.082826353253197</v>
@@ -31067,7 +30869,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.921159214023103</v>
+        <v>1.91579904126188</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.411355653819841</v>
@@ -31156,7 +30958,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.923168467386762</v>
+        <v>1.914128608458247</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.950869198228895</v>
@@ -31245,7 +31047,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.918685339323559</v>
+        <v>1.906390936546743</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.86981060206965</v>
@@ -31334,7 +31136,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.910405745079634</v>
+        <v>1.898690270571043</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.854185493735863</v>
@@ -31423,7 +31225,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.90833955250637</v>
+        <v>1.895080826752304</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.69100218256275</v>
@@ -31512,7 +31314,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.897816881097023</v>
+        <v>1.882477701238054</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.961378569866298</v>
@@ -31601,7 +31403,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.896048260964285</v>
+        <v>1.877787267750094</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.064692801865389</v>
@@ -31690,7 +31492,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.900736245872235</v>
+        <v>1.884304828188636</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.594761152839085</v>
@@ -31779,7 +31581,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.890161644630334</v>
+        <v>1.875209006346957</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.886201913603917</v>
@@ -31868,7 +31670,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.889976526371067</v>
+        <v>1.876132935847136</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.926257853052374</v>
@@ -31957,7 +31759,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.880614856150312</v>
+        <v>1.863790663189971</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.021994738654702</v>
@@ -32046,7 +31848,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.874514031982554</v>
+        <v>1.859193359115524</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.785436579331079</v>
@@ -32135,7 +31937,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.865456860023047</v>
+        <v>1.850875900988987</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.968659683148986</v>
@@ -32224,7 +32026,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.853103890936359</v>
+        <v>1.838033131704252</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.760864340437172</v>
@@ -32313,7 +32115,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.845986336102077</v>
+        <v>1.831993522663562</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.87239002187067</v>
@@ -32402,7 +32204,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.832740419127642</v>
+        <v>1.817973197926068</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.498507888367086</v>
@@ -32491,7 +32293,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.823260563799065</v>
+        <v>1.803482273390011</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.324977303153411</v>
@@ -32580,7 +32382,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.813808943614503</v>
+        <v>1.794268262798453</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.036633944837196</v>
@@ -32669,7 +32471,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.810435953467877</v>
+        <v>1.78163549257384</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.410403565960007</v>
@@ -32758,7 +32560,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.802135791962389</v>
+        <v>1.766564180378714</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.548178399941881</v>
@@ -32847,7 +32649,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.799948309529969</v>
+        <v>1.768530357510632</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.5391099039449</v>
@@ -32936,7 +32738,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.798642796658094</v>
+        <v>1.767844331567513</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.112172815304744</v>
@@ -33025,7 +32827,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.78908572911604</v>
+        <v>1.757652253514018</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.453582838154174</v>
@@ -33114,7 +32916,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.79409969984312</v>
+        <v>1.764189738542249</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.016057471811066</v>
@@ -33203,7 +33005,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.794127672020519</v>
+        <v>1.762871521073955</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.041965382927059</v>
@@ -33292,7 +33094,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.80004168963926</v>
+        <v>1.778298047728794</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.854975669089483</v>
@@ -33381,7 +33183,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.804387931830533</v>
+        <v>1.778021514772215</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.806604045343829</v>
@@ -33470,7 +33272,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.786891274472586</v>
+        <v>1.76200667250805</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.76034579919256</v>
@@ -33559,7 +33361,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.766351865850941</v>
+        <v>1.751630108676713</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.495944495055156</v>
@@ -33648,7 +33450,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.744095213596517</v>
+        <v>1.733355826232181</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.771569234612751</v>
@@ -33737,7 +33539,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.741330465887782</v>
+        <v>1.734450453965359</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.849345597995879</v>
@@ -33826,7 +33628,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.73907853637734</v>
+        <v>1.737443579082719</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.785700886439837</v>
@@ -33915,7 +33717,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.737753137038306</v>
+        <v>1.740064782776672</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.791760711185085</v>
@@ -34004,7 +33806,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.731050381171765</v>
+        <v>1.740580454453117</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.746375553087397</v>
@@ -34093,7 +33895,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.717868265537266</v>
+        <v>1.733485833818635</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.560650645637492</v>
@@ -34182,7 +33984,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.650781250189686</v>
+        <v>1.677713301598494</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.563762239958582</v>
@@ -34271,7 +34073,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.618608867026162</v>
+        <v>1.652198200087371</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.650464321817099</v>
@@ -34557,7 +34359,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.635527796666693</v>
+        <v>1.657077858725033</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.553194829851955</v>
@@ -34646,7 +34448,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.60228821248805</v>
+        <v>1.622495808207208</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.32235963460193</v>
@@ -34735,7 +34537,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.596991747330289</v>
+        <v>1.616950242455108</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.455349680833802</v>
@@ -34824,7 +34626,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.614108210914043</v>
+        <v>1.636148903007454</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.308481556907236</v>
@@ -34913,7 +34715,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.649102333647682</v>
+        <v>1.659434466947402</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.339406982459961</v>
@@ -35002,7 +34804,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.665727279735975</v>
+        <v>1.676194330034</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.264132367101859</v>
@@ -35091,7 +34893,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.685206490881642</v>
+        <v>1.697330827078243</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.430247023956597</v>
@@ -35180,7 +34982,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.693548011010296</v>
+        <v>1.702873798685572</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.460836579745262</v>
@@ -35269,7 +35071,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.68697048912489</v>
+        <v>1.696867739045445</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.458468896112825</v>
@@ -35358,7 +35160,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.691635250780435</v>
+        <v>1.701845489424056</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.507089804558718</v>
@@ -35447,7 +35249,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.674347414511973</v>
+        <v>1.691958463553276</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.515452789930566</v>
@@ -35536,7 +35338,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.676279932374729</v>
+        <v>1.698452142210869</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.339758514216083</v>
@@ -35625,7 +35427,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.674210821584532</v>
+        <v>1.698744357290794</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.494611505616663</v>
@@ -35714,7 +35516,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.689163713667484</v>
+        <v>1.711848235986555</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.421073990864052</v>
@@ -35803,7 +35605,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.70211011625672</v>
+        <v>1.725575484451698</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.473640120910678</v>
@@ -35892,7 +35694,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.710014323522066</v>
+        <v>1.735010871888794</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.564831406585901</v>
@@ -35981,7 +35783,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.769204047551407</v>
+        <v>1.793507283286306</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.32127113306986</v>
@@ -36070,7 +35872,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.759263096119973</v>
+        <v>1.78364558391656</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.039761490025884</v>
@@ -36159,7 +35961,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.759218168190223</v>
+        <v>1.782950568315149</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.100709193364549</v>
@@ -36248,7 +36050,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.764602480926383</v>
+        <v>1.787729251961335</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.248756574545987</v>
@@ -36337,7 +36139,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.778266253191661</v>
+        <v>1.802208247378722</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.292884545851713</v>
@@ -36426,7 +36228,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.781496165245442</v>
+        <v>1.805380620784155</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.57856949231703</v>
@@ -36515,7 +36317,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.79501475223229</v>
+        <v>1.818520867874192</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.420999805118261</v>
@@ -36604,7 +36406,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.814473376414404</v>
+        <v>1.836266337241785</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.266400112998804</v>
@@ -36693,7 +36495,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.832242988155878</v>
+        <v>1.854360237435344</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.193747385976757</v>
@@ -36782,7 +36584,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.855902536920746</v>
+        <v>1.871670845748923</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.19328755743324</v>
@@ -36871,7 +36673,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.87024691813047</v>
+        <v>1.882026012495178</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.332466089738649</v>
@@ -36960,7 +36762,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.873914124617096</v>
+        <v>1.879138676067484</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.099116901117609</v>
@@ -37049,7 +36851,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.867710168871848</v>
+        <v>1.875725225084958</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.228086811857829</v>
@@ -37138,7 +36940,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.864840414838456</v>
+        <v>1.870049993042437</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.27705290125936</v>
@@ -37227,7 +37029,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.87595831236768</v>
+        <v>1.878208334204107</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.685894881454339</v>
@@ -37316,7 +37118,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.879007278464795</v>
+        <v>1.877546948585231</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.853374741348428</v>
@@ -37405,7 +37207,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.880177949000282</v>
+        <v>1.878511478556879</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.857617175252406</v>
@@ -37494,7 +37296,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.873441937532857</v>
+        <v>1.871981519199866</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.916749874257917</v>
@@ -37583,7 +37385,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.870476909344802</v>
+        <v>1.865462606027639</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.666810777046742</v>
@@ -37672,7 +37474,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.860271608170952</v>
+        <v>1.854401452154111</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.809122341500219</v>
@@ -37761,7 +37563,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.858704819693928</v>
+        <v>1.847307672179555</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.642325608555857</v>
@@ -37850,7 +37652,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.849477638473655</v>
+        <v>1.840299003081911</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.066522102268182</v>
@@ -37939,7 +37741,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.843476922623921</v>
+        <v>1.836555190716864</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.107078230191402</v>
@@ -38028,7 +37830,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.82831390097699</v>
+        <v>1.821635097962495</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.553015405111498</v>
@@ -38117,7 +37919,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.826133198307747</v>
+        <v>1.82264477406814</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.000986300642815</v>
@@ -38206,7 +38008,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.822253071484842</v>
+        <v>1.813974995640127</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.534976570728329</v>
@@ -38295,7 +38097,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.831310399631915</v>
+        <v>1.821002114568283</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.56122248539989</v>
@@ -38384,7 +38186,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.831163094103047</v>
+        <v>1.823807777682503</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.693393634833261</v>
@@ -38473,7 +38275,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.810982610754236</v>
+        <v>1.803718483581636</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.087804229140998</v>
@@ -38562,7 +38364,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.79525787200969</v>
+        <v>1.789227267084526</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.640155367352994</v>
@@ -38651,7 +38453,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.793016747513712</v>
+        <v>1.790585751701181</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.907121543834513</v>
@@ -38740,7 +38542,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.794914645279501</v>
+        <v>1.789766977331742</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.407445771006161</v>
@@ -38829,7 +38631,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.788782329339148</v>
+        <v>1.782638201531169</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.209804486140635</v>
@@ -38918,7 +38720,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.785816256254029</v>
+        <v>1.779902956990371</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.784187557914631</v>
@@ -39007,7 +38809,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.781953915767174</v>
+        <v>1.775925251128341</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.968592949784907</v>
@@ -39096,7 +38898,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.758396141040946</v>
+        <v>1.754660196174034</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.710278667824005</v>
@@ -39185,7 +38987,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.746456013109296</v>
+        <v>1.743670774516094</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.526386534015498</v>
@@ -39274,7 +39076,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.745947005809171</v>
+        <v>1.742845986872874</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.472179016634367</v>
@@ -39363,7 +39165,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.73133505249762</v>
+        <v>1.726575536847328</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.591650270727583</v>
@@ -39452,7 +39254,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.728297364991195</v>
+        <v>1.720971829666824</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.526959344147222</v>
@@ -39541,7 +39343,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.715866869243383</v>
+        <v>1.712057062647292</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.176330762978482</v>
@@ -39630,7 +39432,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.712844640368282</v>
+        <v>1.708484065431954</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.168866407276486</v>
@@ -39719,7 +39521,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.703659878140662</v>
+        <v>1.700792474435895</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.121273423223716</v>
@@ -39808,7 +39610,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.724716188075911</v>
+        <v>1.726737539729255</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.478939627676693</v>
@@ -39897,7 +39699,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.739656979529301</v>
+        <v>1.740530443773913</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.403647153827935</v>
@@ -39986,7 +39788,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.742456451933857</v>
+        <v>1.744854384708194</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.475152921518744</v>
@@ -40075,7 +39877,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.745058508867652</v>
+        <v>1.745209700815016</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.52065805431642</v>
@@ -40164,7 +39966,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.741499015086396</v>
+        <v>1.745647095699739</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.371405051298307</v>
@@ -40253,7 +40055,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.739760970943654</v>
+        <v>1.749490814261581</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.421018043039001</v>
@@ -40342,7 +40144,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.736676773607644</v>
+        <v>1.750543700829811</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.536197639195295</v>
@@ -40431,7 +40233,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.734938911261649</v>
+        <v>1.754366462797431</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.014524782301077</v>
@@ -40520,7 +40322,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.719182523182124</v>
+        <v>1.745256778798774</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.037452950282935</v>
@@ -40609,7 +40411,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.678955438156024</v>
+        <v>1.711401695352327</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.991783640275691</v>
@@ -40698,7 +40500,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.683337395471908</v>
+        <v>1.712789439189613</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.05969106835685</v>
@@ -40787,7 +40589,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.673647303332038</v>
+        <v>1.704310340988298</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.965067226973022</v>
@@ -40876,7 +40678,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.679392312275322</v>
+        <v>1.711168541906678</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.898516233808929</v>
@@ -40965,7 +40767,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.671513943546374</v>
+        <v>1.700392133543713</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.974746596306364</v>
@@ -41054,7 +40856,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.652481912734399</v>
+        <v>1.682207588021313</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.969570620020207</v>
@@ -41143,7 +40945,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.607399906338005</v>
+        <v>1.609933248061792</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.462803270881112</v>
@@ -41232,7 +41034,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.569918472165316</v>
+        <v>1.577683140951472</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.450556074832915</v>
@@ -41518,7 +41320,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.483407632733758</v>
+        <v>1.492668831934359</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.258072361924625</v>
@@ -41607,7 +41409,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.486831698165455</v>
+        <v>1.499208757152331</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.257294711369479</v>
@@ -41696,7 +41498,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.471105732079009</v>
+        <v>1.480965086038294</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.223522545057322</v>
@@ -41785,7 +41587,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.460561455015739</v>
+        <v>1.466813294195804</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.970673588195412</v>
@@ -41874,7 +41676,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.474569171497262</v>
+        <v>1.484031574373334</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.972038133604062</v>
@@ -41963,7 +41765,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.493678208957639</v>
+        <v>1.503775240531129</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.388970495153468</v>
@@ -42052,7 +41854,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.524576044325644</v>
+        <v>1.532936191509308</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.234956787722372</v>
@@ -42141,7 +41943,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.525332616106248</v>
+        <v>1.536488968131157</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.640691600948418</v>
@@ -42230,7 +42032,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.519653414968843</v>
+        <v>1.527495455300417</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.597168293492214</v>
@@ -42319,7 +42121,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.525503638611017</v>
+        <v>1.530255868054578</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.474348806574998</v>
@@ -42408,7 +42210,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.538443007385317</v>
+        <v>1.539392005717729</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.389966038574792</v>
@@ -42497,7 +42299,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.520995556355086</v>
+        <v>1.51562328200458</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.330100880821115</v>
@@ -42586,7 +42388,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.525564266607716</v>
+        <v>1.519711448234924</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.400092194440864</v>
@@ -42675,7 +42477,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.5279212640771</v>
+        <v>1.517043162705827</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.394001266191845</v>
@@ -42764,7 +42566,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.544366681051114</v>
+        <v>1.530741011070839</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.489593287725126</v>
@@ -42853,7 +42655,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.542637064918517</v>
+        <v>1.525651622150595</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.419968189521243</v>
@@ -42942,7 +42744,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.545923272520077</v>
+        <v>1.530774401821523</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.486921191331914</v>
@@ -43031,7 +42833,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.54925787378072</v>
+        <v>1.534378597862392</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.464244080196415</v>
@@ -43120,7 +42922,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.570836696707199</v>
+        <v>1.556540171202462</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.52611910090395</v>
@@ -43209,7 +43011,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.596185052443626</v>
+        <v>1.587459558042035</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.474149826028117</v>
@@ -43298,7 +43100,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.654905874372506</v>
+        <v>1.648814637586075</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.537372399862766</v>
@@ -43387,7 +43189,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.684344658406868</v>
+        <v>1.687260955104853</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.881206602864388</v>
@@ -43476,7 +43278,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.746085035944402</v>
+        <v>1.745984518612339</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.1446236140312</v>
@@ -43565,7 +43367,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.769777389796329</v>
+        <v>1.776825863686503</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.015287174791565</v>
@@ -43654,7 +43456,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.79346806744893</v>
+        <v>1.802560824401461</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.11112364399204</v>
@@ -43743,7 +43545,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.810776280219836</v>
+        <v>1.823436081843118</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.539160302444842</v>
@@ -43832,7 +43634,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.82834579588912</v>
+        <v>1.843829860794834</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.293479790906065</v>
@@ -43921,7 +43723,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.847834289144475</v>
+        <v>1.865555005916873</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.479297986323785</v>
@@ -44010,7 +43812,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.852803242320949</v>
+        <v>1.874363014928005</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.276617971816336</v>
@@ -44099,7 +43901,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.8551362972159</v>
+        <v>1.87833511339212</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.313444110471585</v>
@@ -44188,7 +43990,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.862699459108252</v>
+        <v>1.886521962399133</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.509348023196524</v>
@@ -44277,7 +44079,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.867350993549063</v>
+        <v>1.889977494621381</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.558180759161479</v>
@@ -44366,7 +44168,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.862011257284796</v>
+        <v>1.884319473236516</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.599620534406266</v>
@@ -44455,7 +44257,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.855439922679893</v>
+        <v>1.87459636333255</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.779827183099994</v>
@@ -44544,7 +44346,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.856406009595468</v>
+        <v>1.869118037366631</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.50459492807456</v>
@@ -44633,7 +44435,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.842868083268637</v>
+        <v>1.856305440018497</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.174972781714891</v>
@@ -44722,7 +44524,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.830226103639046</v>
+        <v>1.835364948492247</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.298207770054606</v>
@@ -44811,7 +44613,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.817456533549615</v>
+        <v>1.824971736588566</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.180221051972687</v>
@@ -44900,7 +44702,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.810970419293376</v>
+        <v>1.814605123037913</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.942041447559024</v>
@@ -44989,7 +44791,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.805381344292171</v>
+        <v>1.808029415490845</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.328403718337258</v>
@@ -45078,7 +44880,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.790025553961605</v>
+        <v>1.79005879561342</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.119705352965452</v>
@@ -45167,7 +44969,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.779264835756457</v>
+        <v>1.775203945093876</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.699170726296621</v>
@@ -45256,7 +45058,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.782538997582013</v>
+        <v>1.773044711841102</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.731523820380507</v>
@@ -45345,7 +45147,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.793678749625518</v>
+        <v>1.782546734287158</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.448816102583382</v>
@@ -45434,7 +45236,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.793342290218515</v>
+        <v>1.783423676330821</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.412111671042941</v>
@@ -45523,7 +45325,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.792636539709062</v>
+        <v>1.779902388306181</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.641748728569805</v>
@@ -45612,7 +45414,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.759363529011808</v>
+        <v>1.75469478233323</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.549093870859909</v>
@@ -45701,7 +45503,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.753056211761992</v>
+        <v>1.75247040721349</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.972838849265249</v>
@@ -45790,7 +45592,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.753281957975807</v>
+        <v>1.753766953105531</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.25484525404858</v>
@@ -45879,7 +45681,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.751991509633425</v>
+        <v>1.752382316331178</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.349615500188779</v>
@@ -45968,7 +45770,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.749958835723171</v>
+        <v>1.753164799492127</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.371944226039923</v>
@@ -46057,7 +45859,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.734279905895344</v>
+        <v>1.738682585117798</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.312354076851559</v>
@@ -46146,7 +45948,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.725298233613263</v>
+        <v>1.727786319729082</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.157573289792729</v>
@@ -46235,7 +46037,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.709343867856252</v>
+        <v>1.706687196262123</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.976446677999276</v>
@@ -46324,7 +46126,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.681569348972223</v>
+        <v>1.683455047946453</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.995252981207567</v>
@@ -46413,7 +46215,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.672829524640095</v>
+        <v>1.671398460161618</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.954906867429044</v>
@@ -46502,7 +46304,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.661143913949616</v>
+        <v>1.656361746582682</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.006144129942051</v>
@@ -46591,7 +46393,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.625623562112209</v>
+        <v>1.618932184124579</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.919398729093312</v>
@@ -46680,7 +46482,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.590658096251726</v>
+        <v>1.58407496176477</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.696948689146574</v>
@@ -46769,7 +46571,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.555299977346121</v>
+        <v>1.551910875412992</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.497313000182802</v>
@@ -46858,7 +46660,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.550436344067006</v>
+        <v>1.547906768602211</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.542150497260939</v>
@@ -46947,7 +46749,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.56748725938662</v>
+        <v>1.562150349289066</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.221378184713434</v>
@@ -47036,7 +46838,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.566365442694062</v>
+        <v>1.560414619073939</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.245988299242958</v>
@@ -47125,7 +46927,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.561557098148309</v>
+        <v>1.556769795086492</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.014323643298044</v>
@@ -47214,7 +47016,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.572723954606824</v>
+        <v>1.567899456691941</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.200228122137629</v>
@@ -47303,7 +47105,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.569911443066618</v>
+        <v>1.563453101571445</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.292381175527165</v>
@@ -47392,7 +47194,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.558198794386334</v>
+        <v>1.551118229339329</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.098820570628637</v>
@@ -47481,7 +47283,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.515869316884366</v>
+        <v>1.503680866858017</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.276192333931371</v>
@@ -47570,7 +47372,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.473791749978119</v>
+        <v>1.45190230048733</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.258333776769141</v>
@@ -47659,7 +47461,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.466898082435827</v>
+        <v>1.441793956372094</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.286635374763184</v>
@@ -47748,7 +47550,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.457773378241415</v>
+        <v>1.442085727678563</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.281520849206551</v>
@@ -47837,7 +47639,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.457886000862854</v>
+        <v>1.445870918809432</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.216904890206369</v>
@@ -47926,7 +47728,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.455203292551535</v>
+        <v>1.446649883960287</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.263414840548029</v>
@@ -48015,7 +47817,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.45428839860811</v>
+        <v>1.444239342399829</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.2889322321801</v>
@@ -48104,7 +47906,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.432789203576204</v>
+        <v>1.411092067424419</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.413180059549574</v>
@@ -48193,7 +47995,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.400652010532424</v>
+        <v>1.370641696635325</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.431289845477542</v>
